--- a/VS-RegressionQA/testdata.xlsx
+++ b/VS-RegressionQA/testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204A800-7696-47D9-AED6-1D0B6FF519AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,11 @@
     <sheet name="PRO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A13:E25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="227">
   <si>
     <t>homepageURL</t>
   </si>
@@ -630,12 +630,81 @@
   </si>
   <si>
     <t>https://valuestore-qa.pwc.com/content/valuestore/us/en/firmwide/erinc-content/ghosted-test.html</t>
+  </si>
+  <si>
+    <t>pwcID</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/us/en.html</t>
+  </si>
+  <si>
+    <t>homepagePublisher</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/us/en/firmwide/erinc-content.html</t>
+  </si>
+  <si>
+    <t>contentPublish</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/mx/es/firmwide/erinc-content-automation.html</t>
+  </si>
+  <si>
+    <t>mexicoContentPublisher</t>
+  </si>
+  <si>
+    <t>topicPublisher</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/us/en/firmwide/erinc-content/topic-test.html</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/us/en/firmwide/erinc-content/notfoundpage.html</t>
+  </si>
+  <si>
+    <t>notFoundPage</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/mx/en/firmwide/erinc-content/notfoundpage.html</t>
+  </si>
+  <si>
+    <t>notFoundPageMx</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content/system.html</t>
+  </si>
+  <si>
+    <t>newPageforwhatothers</t>
+  </si>
+  <si>
+    <t>https://valuestore-qa.pwc.com/content/valuestore/us/en/firmwide/erinc-content/erinc-content-page.html</t>
+  </si>
+  <si>
+    <t>secondcontentpublish</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content/fav-automation.html</t>
+  </si>
+  <si>
+    <t>favAutomationPage</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/firmwide/erinc-content/hiding-automation-page.html</t>
+  </si>
+  <si>
+    <t>hidingAutomation</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/mnt/overlay/wcm/core/content/sites/createpagewizard.html/content/valuestore/gx/en</t>
+  </si>
+  <si>
+    <t>pageTemplatePageGlobal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,6 +857,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -823,6 +909,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -998,11 +1101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1177,17 @@
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1092,7 +1200,12 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1103,10 +1216,20 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1257,32 +1380,92 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B31" r:id="rId3"/>
-    <hyperlink ref="B32" r:id="rId4"/>
-    <hyperlink ref="B35" r:id="rId5"/>
-    <hyperlink ref="B37" r:id="rId6"/>
-    <hyperlink ref="B39" r:id="rId7"/>
-    <hyperlink ref="B41" r:id="rId8"/>
-    <hyperlink ref="B43" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B37" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B39" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{0531D938-AC8D-4DD5-82C8-C6A047AD5A5D}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{BD1562B7-22D2-4DE3-88C7-C22301C5D7BD}"/>
+    <hyperlink ref="B45" r:id="rId12" xr:uid="{68B948B5-4898-4EB1-86F4-E5A2C0DA6698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1565,7 +1748,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1573,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1586,7 +1768,7 @@
     <col min="2" max="2" width="136.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1792,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1618,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,7 +1808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1642,7 +1824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1848,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1674,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +1864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1690,7 +1872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1706,7 +1888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1722,7 +1904,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -1730,7 +1912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1738,7 +1920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1746,7 +1928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -1762,7 +1944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>103</v>
       </c>
@@ -1770,7 +1952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -1778,7 +1960,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1786,7 +1968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -1794,7 +1976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1802,7 +1984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1810,7 +1992,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -1818,7 +2000,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -1826,7 +2008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
@@ -1834,7 +2016,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -1842,7 +2024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
@@ -1850,7 +2032,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -1858,7 +2040,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>126</v>
       </c>
@@ -1866,7 +2048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -1874,7 +2056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
@@ -1882,7 +2064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -1890,7 +2072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>134</v>
       </c>
@@ -1898,7 +2080,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
@@ -1906,7 +2088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -1914,7 +2096,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -1922,7 +2104,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>152</v>
       </c>
@@ -1930,7 +2112,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>154</v>
       </c>
@@ -1938,7 +2120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -1948,23 +2130,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B16" r:id="rId4"/>
-    <hyperlink ref="B17" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="B45" r:id="rId7"/>
-    <hyperlink ref="B44" r:id="rId8"/>
-    <hyperlink ref="B43" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B29" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B44" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B43" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1977,7 +2159,7 @@
     <col min="2" max="2" width="136.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,11 +2183,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2013,10 +2195,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2024,10 +2206,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2043,10 +2225,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +2236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2062,7 +2244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2070,7 +2252,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2078,7 +2260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2086,14 +2268,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2101,13 +2283,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -2115,14 +2297,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -2130,7 +2312,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>108</v>
       </c>
@@ -2138,7 +2320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -2146,14 +2328,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -2161,7 +2343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>119</v>
       </c>
@@ -2169,7 +2351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -2177,7 +2359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
@@ -2185,7 +2367,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>123</v>
       </c>
@@ -2193,7 +2375,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>126</v>
       </c>
@@ -2201,7 +2383,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -2209,7 +2391,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
@@ -2217,7 +2399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -2225,7 +2407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>134</v>
       </c>
@@ -2233,7 +2415,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
@@ -2241,7 +2423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
@@ -2249,10 +2431,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>152</v>
       </c>
@@ -2260,11 +2442,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>155</v>
       </c>
@@ -2274,20 +2456,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B25" r:id="rId3"/>
-    <hyperlink ref="B16" r:id="rId4"/>
-    <hyperlink ref="B45" r:id="rId5"/>
-    <hyperlink ref="B43" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="B5" r:id="rId13"/>
-    <hyperlink ref="B3" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId1" display="Welcome@81Ch@ng3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B45" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B43" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B3" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VS-RegressionQA/testdata.xlsx
+++ b/VS-RegressionQA/testdata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204A800-7696-47D9-AED6-1D0B6FF519AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDD775-F3E9-4369-92C9-AF0F3A185FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="229">
   <si>
     <t>homepageURL</t>
   </si>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>pageTemplatePageGlobal</t>
+  </si>
+  <si>
+    <t>https://auth-valuestore-qa.pwc.com/editor.html/content/valuestore/us/en/external-pages/automation-external-page.html</t>
+  </si>
+  <si>
+    <t>externalPage</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1447,14 @@
       </c>
       <c r="B51" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
